--- a/CS Group/25201/CS Group__resources.xlsx
+++ b/CS Group/25201/CS Group__resources.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="752">
   <si>
     <t>Rich Type</t>
   </si>
@@ -649,6 +649,42 @@
     <t>Final clean up, removal of masking tape / temporary covers and inspection of joint and surrounding areas</t>
   </si>
   <si>
+    <t>201a7e98-a108-4fbb-be4a-75efd9390d4c</t>
+  </si>
+  <si>
+    <t>ASM/ASMC. Date:</t>
+  </si>
+  <si>
+    <t>QA - ASM/ASMC</t>
+  </si>
+  <si>
+    <t>5b6ad4f3-a292-4808-85ec-39e5b9b13699</t>
+  </si>
+  <si>
+    <t>9488f0e5-5448-4511-973a-322a5658fd4a</t>
+  </si>
+  <si>
+    <t>0c43895b-93e0-5c09-881f-6e8c83f4909a</t>
+  </si>
+  <si>
+    <t>9d6d6978-cefc-4b1c-9de0-e7c1b5f3b257</t>
+  </si>
+  <si>
+    <t>73dd0724-f24e-4ab1-9df7-c295bff93070</t>
+  </si>
+  <si>
+    <t>7ce12a3f-4d51-4ae4-b812-4cfa64154e55</t>
+  </si>
+  <si>
+    <t>446b1c3a-6081-4c24-8fd3-e7a515e42abb</t>
+  </si>
+  <si>
+    <t>Centre plate affixed into retainer securely</t>
+  </si>
+  <si>
+    <t>9f25750c-0bc8-463b-acb7-60aebf4cb737</t>
+  </si>
+  <si>
     <t>44f9a1b8-0f2f-4323-979f-89fd522700a2</t>
   </si>
   <si>
@@ -715,42 +751,6 @@
     <t>Clean of installed product</t>
   </si>
   <si>
-    <t>201a7e98-a108-4fbb-be4a-75efd9390d4c</t>
-  </si>
-  <si>
-    <t>ASM/ASMC. Date:</t>
-  </si>
-  <si>
-    <t>QA - ASM/ASMC</t>
-  </si>
-  <si>
-    <t>5b6ad4f3-a292-4808-85ec-39e5b9b13699</t>
-  </si>
-  <si>
-    <t>9488f0e5-5448-4511-973a-322a5658fd4a</t>
-  </si>
-  <si>
-    <t>0c43895b-93e0-5c09-881f-6e8c83f4909a</t>
-  </si>
-  <si>
-    <t>9d6d6978-cefc-4b1c-9de0-e7c1b5f3b257</t>
-  </si>
-  <si>
-    <t>73dd0724-f24e-4ab1-9df7-c295bff93070</t>
-  </si>
-  <si>
-    <t>7ce12a3f-4d51-4ae4-b812-4cfa64154e55</t>
-  </si>
-  <si>
-    <t>446b1c3a-6081-4c24-8fd3-e7a515e42abb</t>
-  </si>
-  <si>
-    <t>Centre plate affixed into retainer securely</t>
-  </si>
-  <si>
-    <t>9f25750c-0bc8-463b-acb7-60aebf4cb737</t>
-  </si>
-  <si>
     <t>ecb8f843-47d7-4980-bedf-4a4922bd18ca</t>
   </si>
   <si>
@@ -1321,6 +1321,57 @@
     <t>1437a84e-c0bc-41e6-a095-36c019054a9d</t>
   </si>
   <si>
+    <t>e281b2d0-ce61-466e-b5c1-527d4ef366ef</t>
+  </si>
+  <si>
+    <t>VF. Date:</t>
+  </si>
+  <si>
+    <t>QA - VF</t>
+  </si>
+  <si>
+    <t>0aa617c6-93dc-4d3e-8f70-533bfe278f45</t>
+  </si>
+  <si>
+    <t>cf169fa0-578e-45eb-bbb8-13aa26ccb1e1</t>
+  </si>
+  <si>
+    <t>61a7ebc6-2931-5338-bbef-97bbf9f80d80</t>
+  </si>
+  <si>
+    <t>2effb7a4-21ee-4289-b9ae-781e7f773a25</t>
+  </si>
+  <si>
+    <t>cd92e4e9-b831-494e-864f-b1f18078fabe</t>
+  </si>
+  <si>
+    <t>c53f6d6f-275b-4afe-b596-21ab8f383002</t>
+  </si>
+  <si>
+    <t>Clean sub straights</t>
+  </si>
+  <si>
+    <t>598e1e96-8315-45fe-a540-8488ccfcdb65</t>
+  </si>
+  <si>
+    <t>Epoxy applied well to product and sub straight</t>
+  </si>
+  <si>
+    <t>dbd60991-5d45-4f14-98fd-ba31c9718ba5</t>
+  </si>
+  <si>
+    <t>Install VF product to correct depth or flush</t>
+  </si>
+  <si>
+    <t>8faefc15-3314-44b9-9620-84e365d5abf3</t>
+  </si>
+  <si>
+    <t>Silicone applied</t>
+  </si>
+  <si>
+    <t>77004d53-c5b0-4075-8868-2fdc70878881</t>
+  </si>
+  <si>
     <t>23019bce-7149-4ed7-832c-c6f94c99ebdb</t>
   </si>
   <si>
@@ -1390,57 +1441,6 @@
     <t>ca499290-f075-47b9-9d4d-4c26f46fbae0</t>
   </si>
   <si>
-    <t>e281b2d0-ce61-466e-b5c1-527d4ef366ef</t>
-  </si>
-  <si>
-    <t>VF. Date:</t>
-  </si>
-  <si>
-    <t>QA - VF</t>
-  </si>
-  <si>
-    <t>0aa617c6-93dc-4d3e-8f70-533bfe278f45</t>
-  </si>
-  <si>
-    <t>cf169fa0-578e-45eb-bbb8-13aa26ccb1e1</t>
-  </si>
-  <si>
-    <t>61a7ebc6-2931-5338-bbef-97bbf9f80d80</t>
-  </si>
-  <si>
-    <t>2effb7a4-21ee-4289-b9ae-781e7f773a25</t>
-  </si>
-  <si>
-    <t>cd92e4e9-b831-494e-864f-b1f18078fabe</t>
-  </si>
-  <si>
-    <t>c53f6d6f-275b-4afe-b596-21ab8f383002</t>
-  </si>
-  <si>
-    <t>Clean sub straights</t>
-  </si>
-  <si>
-    <t>598e1e96-8315-45fe-a540-8488ccfcdb65</t>
-  </si>
-  <si>
-    <t>Epoxy applied well to product and sub straight</t>
-  </si>
-  <si>
-    <t>dbd60991-5d45-4f14-98fd-ba31c9718ba5</t>
-  </si>
-  <si>
-    <t>Install VF product to correct depth or flush</t>
-  </si>
-  <si>
-    <t>8faefc15-3314-44b9-9620-84e365d5abf3</t>
-  </si>
-  <si>
-    <t>Silicone applied</t>
-  </si>
-  <si>
-    <t>77004d53-c5b0-4075-8868-2fdc70878881</t>
-  </si>
-  <si>
     <t>fa779ee1-e661-4b30-b6c8-65adc37821a5</t>
   </si>
   <si>
@@ -2216,6 +2216,57 @@
   </si>
   <si>
     <t>14b4b0b7-6d0d-4552-bad4-482aa93858b9</t>
+  </si>
+  <si>
+    <t>6efb70ad-af29-4efb-99af-693468164c72</t>
+  </si>
+  <si>
+    <t>ESC/ESW. Date:</t>
+  </si>
+  <si>
+    <t>QA - ESC/ESW</t>
+  </si>
+  <si>
+    <t>af374607-0895-4b84-b3e4-8370ab23519e</t>
+  </si>
+  <si>
+    <t>4dc13d46-3ba7-4d32-8539-93360bcb4c15</t>
+  </si>
+  <si>
+    <t>61980ec3-de5f-5055-966d-1c0fe17eb931</t>
+  </si>
+  <si>
+    <t>a647dd57-11d4-4526-b5cb-1048417c58f4</t>
+  </si>
+  <si>
+    <t>dc45df57-efb3-4b79-bc24-b017cee36a95</t>
+  </si>
+  <si>
+    <t>14638c34-2e0a-43f4-a22c-b1127c174199</t>
+  </si>
+  <si>
+    <t>e47b0c5d-c2b8-4272-ac4d-cf9b9336158b</t>
+  </si>
+  <si>
+    <t>02289a61-4da9-4b99-a465-67cccac9793a</t>
+  </si>
+  <si>
+    <t>80d4ff06-4ae6-4d1a-8293-9535f8f3986a</t>
+  </si>
+  <si>
+    <t>Frame/Retainers installed properly using supplied fixings</t>
+  </si>
+  <si>
+    <t>7389e75d-2f8c-4e33-99a5-0668c20bae35</t>
+  </si>
+  <si>
+    <t>Turnbars installed with centre plate secured</t>
+  </si>
+  <si>
+    <t>702429b0-e0e2-4fcf-a032-20f97b694718</t>
+  </si>
+  <si>
+    <t>386cc0a7-9182-44bd-a72f-1c44a9c3a69e</t>
   </si>
 </sst>
 </file>
@@ -2602,7 +2653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L488"/>
+  <dimension ref="A1:L501"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -4508,10 +4559,10 @@
         <v>17</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4519,7 +4570,7 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -4536,7 +4587,7 @@
         <v>24</v>
       </c>
       <c r="B112" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -4553,7 +4604,7 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -4562,7 +4613,7 @@
         <v>22</v>
       </c>
       <c r="E113" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4570,7 +4621,7 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -4579,7 +4630,7 @@
         <v>22</v>
       </c>
       <c r="E114" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4587,7 +4638,7 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -4596,7 +4647,7 @@
         <v>22</v>
       </c>
       <c r="E115" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4630,41 +4681,40 @@
         <v>22</v>
       </c>
       <c r="E117" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C118" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="C119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>20</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="F119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L119" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" t="s">
-        <v>22</v>
-      </c>
-      <c r="E119" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4672,7 +4722,7 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
@@ -4681,24 +4731,24 @@
         <v>22</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4706,49 +4756,50 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
+        <v>229</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
+        <v>230</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" t="s">
+        <v>231</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" t="s">
         <v>232</v>
-      </c>
-      <c r="C122" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" t="s">
-        <v>22</v>
-      </c>
-      <c r="E122" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="L124" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4756,7 +4807,7 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
@@ -4765,24 +4816,24 @@
         <v>22</v>
       </c>
       <c r="E125" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4790,7 +4841,7 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
@@ -4799,7 +4850,7 @@
         <v>22</v>
       </c>
       <c r="E127" t="s">
-        <v>29</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4807,7 +4858,7 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
@@ -4816,7 +4867,7 @@
         <v>22</v>
       </c>
       <c r="E128" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4824,7 +4875,7 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -4833,7 +4884,7 @@
         <v>22</v>
       </c>
       <c r="E129" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4841,16 +4892,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
+        <v>242</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" t="s">
         <v>243</v>
-      </c>
-      <c r="C130" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" t="s">
-        <v>22</v>
-      </c>
-      <c r="E130" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4858,16 +4909,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" t="s">
         <v>245</v>
-      </c>
-      <c r="C131" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" t="s">
-        <v>22</v>
-      </c>
-      <c r="E131" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -5492,7 +5543,7 @@
         <v>22</v>
       </c>
       <c r="E168" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -7218,7 +7269,7 @@
         <v>22</v>
       </c>
       <c r="E270" t="s">
-        <v>444</v>
+        <v>83</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -7226,16 +7277,16 @@
         <v>20</v>
       </c>
       <c r="B271" t="s">
+        <v>444</v>
+      </c>
+      <c r="C271" t="s">
+        <v>14</v>
+      </c>
+      <c r="D271" t="s">
+        <v>22</v>
+      </c>
+      <c r="E271" t="s">
         <v>445</v>
-      </c>
-      <c r="C271" t="s">
-        <v>14</v>
-      </c>
-      <c r="D271" t="s">
-        <v>22</v>
-      </c>
-      <c r="E271" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -7252,7 +7303,7 @@
         <v>22</v>
       </c>
       <c r="E272" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -7260,7 +7311,7 @@
         <v>20</v>
       </c>
       <c r="B273" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C273" t="s">
         <v>14</v>
@@ -7269,7 +7320,7 @@
         <v>22</v>
       </c>
       <c r="E273" t="s">
-        <v>87</v>
+        <v>449</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -7277,7 +7328,7 @@
         <v>20</v>
       </c>
       <c r="B274" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
@@ -7286,7 +7337,7 @@
         <v>22</v>
       </c>
       <c r="E274" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -7294,7 +7345,7 @@
         <v>20</v>
       </c>
       <c r="B275" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
@@ -7303,41 +7354,40 @@
         <v>22</v>
       </c>
       <c r="E275" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>20</v>
-      </c>
-      <c r="B276" t="s">
-        <v>452</v>
-      </c>
-      <c r="C276" t="s">
-        <v>14</v>
-      </c>
-      <c r="D276" t="s">
-        <v>22</v>
-      </c>
-      <c r="E276" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>20</v>
-      </c>
-      <c r="B277" t="s">
+      <c r="C277" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C277" t="s">
-        <v>14</v>
-      </c>
-      <c r="D277" t="s">
-        <v>22</v>
-      </c>
-      <c r="E277" t="s">
+      <c r="F277" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
+      <c r="J277" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K277" s="2" t="s">
         <v>455</v>
+      </c>
+      <c r="L277" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -7345,7 +7395,7 @@
         <v>20</v>
       </c>
       <c r="B278" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C278" t="s">
         <v>14</v>
@@ -7354,12 +7404,12 @@
         <v>22</v>
       </c>
       <c r="E278" t="s">
-        <v>457</v>
+        <v>23</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B279" t="s">
         <v>458</v>
@@ -7368,43 +7418,44 @@
         <v>14</v>
       </c>
       <c r="D279" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E279" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B281" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>20</v>
+      </c>
+      <c r="B280" t="s">
         <v>459</v>
       </c>
-      <c r="C281" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E281" s="2" t="s">
+      <c r="C280" t="s">
+        <v>14</v>
+      </c>
+      <c r="D280" t="s">
+        <v>22</v>
+      </c>
+      <c r="E280" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>20</v>
+      </c>
+      <c r="B281" t="s">
         <v>460</v>
       </c>
-      <c r="F281" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
-      <c r="I281" s="2"/>
-      <c r="J281" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="C281" t="s">
+        <v>14</v>
+      </c>
+      <c r="D281" t="s">
+        <v>22</v>
+      </c>
+      <c r="E281" t="s">
         <v>461</v>
-      </c>
-      <c r="L281" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -7412,7 +7463,7 @@
         <v>20</v>
       </c>
       <c r="B282" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
@@ -7421,24 +7472,24 @@
         <v>22</v>
       </c>
       <c r="E282" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B283" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
       </c>
       <c r="D283" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E283" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -7446,7 +7497,7 @@
         <v>20</v>
       </c>
       <c r="B284" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
@@ -7455,7 +7506,7 @@
         <v>22</v>
       </c>
       <c r="E284" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -7463,16 +7514,16 @@
         <v>20</v>
       </c>
       <c r="B285" t="s">
+        <v>465</v>
+      </c>
+      <c r="C285" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" t="s">
+        <v>22</v>
+      </c>
+      <c r="E285" t="s">
         <v>466</v>
-      </c>
-      <c r="C285" t="s">
-        <v>14</v>
-      </c>
-      <c r="D285" t="s">
-        <v>22</v>
-      </c>
-      <c r="E285" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -7760,7 +7811,7 @@
         <v>22</v>
       </c>
       <c r="E302" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7895,7 +7946,7 @@
         <v>22</v>
       </c>
       <c r="E310" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7980,7 +8031,7 @@
         <v>22</v>
       </c>
       <c r="E315" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -10873,7 +10924,7 @@
         <v>22</v>
       </c>
       <c r="E486" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -10894,6 +10945,226 @@
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G489" s="2"/>
+      <c r="H489" s="2"/>
+      <c r="I489" s="2"/>
+      <c r="J489" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K489" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="L489" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>20</v>
+      </c>
+      <c r="B490" t="s">
+        <v>739</v>
+      </c>
+      <c r="C490" t="s">
+        <v>14</v>
+      </c>
+      <c r="D490" t="s">
+        <v>22</v>
+      </c>
+      <c r="E490" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>24</v>
+      </c>
+      <c r="B491" t="s">
+        <v>740</v>
+      </c>
+      <c r="C491" t="s">
+        <v>14</v>
+      </c>
+      <c r="D491" t="s">
+        <v>26</v>
+      </c>
+      <c r="E491" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>20</v>
+      </c>
+      <c r="B492" t="s">
+        <v>741</v>
+      </c>
+      <c r="C492" t="s">
+        <v>14</v>
+      </c>
+      <c r="D492" t="s">
+        <v>22</v>
+      </c>
+      <c r="E492" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>20</v>
+      </c>
+      <c r="B493" t="s">
+        <v>742</v>
+      </c>
+      <c r="C493" t="s">
+        <v>14</v>
+      </c>
+      <c r="D493" t="s">
+        <v>22</v>
+      </c>
+      <c r="E493" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>20</v>
+      </c>
+      <c r="B494" t="s">
+        <v>743</v>
+      </c>
+      <c r="C494" t="s">
+        <v>14</v>
+      </c>
+      <c r="D494" t="s">
+        <v>22</v>
+      </c>
+      <c r="E494" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>20</v>
+      </c>
+      <c r="B495" t="s">
+        <v>744</v>
+      </c>
+      <c r="C495" t="s">
+        <v>14</v>
+      </c>
+      <c r="D495" t="s">
+        <v>22</v>
+      </c>
+      <c r="E495" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>20</v>
+      </c>
+      <c r="B496" t="s">
+        <v>745</v>
+      </c>
+      <c r="C496" t="s">
+        <v>14</v>
+      </c>
+      <c r="D496" t="s">
+        <v>22</v>
+      </c>
+      <c r="E496" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>20</v>
+      </c>
+      <c r="B497" t="s">
+        <v>746</v>
+      </c>
+      <c r="C497" t="s">
+        <v>14</v>
+      </c>
+      <c r="D497" t="s">
+        <v>22</v>
+      </c>
+      <c r="E497" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>20</v>
+      </c>
+      <c r="B498" t="s">
+        <v>748</v>
+      </c>
+      <c r="C498" t="s">
+        <v>14</v>
+      </c>
+      <c r="D498" t="s">
+        <v>22</v>
+      </c>
+      <c r="E498" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>20</v>
+      </c>
+      <c r="B499" t="s">
+        <v>750</v>
+      </c>
+      <c r="C499" t="s">
+        <v>14</v>
+      </c>
+      <c r="D499" t="s">
+        <v>22</v>
+      </c>
+      <c r="E499" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>20</v>
+      </c>
+      <c r="B500" t="s">
+        <v>751</v>
+      </c>
+      <c r="C500" t="s">
+        <v>14</v>
+      </c>
+      <c r="D500" t="s">
+        <v>22</v>
+      </c>
+      <c r="E500" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
